--- a/2022_09_12_query/RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ADAURI DONIZETE DA SILVA &amp; CIA LTDA</t>
+          <t xml:space="preserve"> ALI CLEAN INDUSTRIA E COMERCIO LTDA - ME</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06123-9</t>
+          <t xml:space="preserve"> 3.06769-1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUALY CLOR</t>
+          <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,6 +534,46 @@
           <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016599/2022-68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6769.0003.001-6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN 1/20 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +604,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6769.0003.001-6</t>
+          <t xml:space="preserve"> 3.6769.0003.002-4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -579,7 +619,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN 1/20 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MASTER CLEAN 1/40 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -607,17 +647,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALI CLEAN INDUSTRIA E COMERCIO LTDA - ME</t>
+          <t xml:space="preserve"> Atomos Quimica e Produtos de Limpeza Ltda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06769-1</t>
+          <t xml:space="preserve"> 3.05670-1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
+          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -627,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6769.0003.002-4</t>
+          <t xml:space="preserve"> 3.6769.0003.003-2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -642,7 +682,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN 1/40 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MASTER CLEAN 1/100 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -670,32 +710,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALI CLEAN INDUSTRIA E COMERCIO LTDA - ME</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06769-1</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
+          <t xml:space="preserve"> PINHO BRIL PLUS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016599/2022-68</t>
+          <t xml:space="preserve"> 25351.014268/2022-93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6769.0003.003-2</t>
+          <t xml:space="preserve"> 3.5670.0006.001-0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -705,7 +745,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN 1/100 + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -715,7 +755,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -733,17 +773,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atomos Quimica e Produtos de Limpeza Ltda</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05670-1</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP</t>
+          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25001.002282/88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0589.0091.001-1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (500ML) + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -756,27 +836,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atomos Quimica e Produtos de Limpeza Ltda</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05670-1</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP</t>
+          <t xml:space="preserve"> PINHO BRIL PLUS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014268/2022-93</t>
+          <t xml:space="preserve"> 25001.002282/88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5670.0006.001-0</t>
+          <t xml:space="preserve"> 3.0589.0091.002-8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -786,17 +866,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2029</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (1L) + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -806,7 +886,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -832,6 +912,46 @@
           <t xml:space="preserve"> PINHO BRIL PLUS</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25001.002282/88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0589.0091.003-6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (5L) + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -862,7 +982,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.001-1</t>
+          <t xml:space="preserve"> 3.0589.0091.004-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -877,7 +997,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (500ML) + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (500ML)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -925,7 +1045,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.002-8</t>
+          <t xml:space="preserve"> 3.0589.0091.005-6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -940,7 +1060,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (1L) + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (1L)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -988,7 +1108,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.003-6</t>
+          <t xml:space="preserve"> 3.0589.0091.006-0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1003,7 +1123,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (5L) + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (5L)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1051,7 +1171,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.004-4</t>
+          <t xml:space="preserve"> 3.0589.0091.007-9</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1066,7 +1186,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (500ML)</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1094,17 +1214,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.01155-8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1114,7 +1234,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.005-6</t>
+          <t xml:space="preserve"> 3.0589.0091.008-7</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1129,7 +1249,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (1L)</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1157,27 +1277,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.01155-8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25001.002282/88</t>
+          <t xml:space="preserve"> 25351.353916/2011-37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.006-0</t>
+          <t xml:space="preserve"> 3.1155.0014.011-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1187,17 +1307,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE (5L)</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Dias</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1207,7 +1327,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
         </is>
       </c>
     </row>
@@ -1220,27 +1340,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.01155-8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25001.002282/88</t>
+          <t xml:space="preserve"> 25351.353916/2011-37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.007-9</t>
+          <t xml:space="preserve"> 3.1155.0014.012-0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,17 +1370,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1270,7 +1390,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
         </is>
       </c>
     </row>
@@ -1283,27 +1403,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.01155-8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25001.002282/88</t>
+          <t xml:space="preserve"> 25351.353916/2011-37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0091.008-7</t>
+          <t xml:space="preserve"> 3.1155.0014.013-9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1313,17 +1433,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1333,7 +1453,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
         </is>
       </c>
     </row>
@@ -1359,6 +1479,46 @@
           <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.353916/2011-37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1155.0014.014-7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1389,7 +1549,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.011-2</t>
+          <t xml:space="preserve"> 3.1155.0014.015-5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1404,12 +1564,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Dias</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1452,7 +1612,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.012-0</t>
+          <t xml:space="preserve"> 3.1155.0014.016-3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1515,7 +1675,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.013-9</t>
+          <t xml:space="preserve"> 3.1155.0014.017-1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1578,7 +1738,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.014-7</t>
+          <t xml:space="preserve"> 3.1155.0014.018-1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1593,7 +1753,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1621,17 +1781,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.02603-1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> BRASCIL MAX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1641,7 +1801,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.015-5</t>
+          <t xml:space="preserve"> 3.1155.0014.019-8</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1656,7 +1816,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1684,32 +1844,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.02603-1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> BRASCIL MAX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.353916/2011-37</t>
+          <t xml:space="preserve"> 25351.550723/2021-39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.016-3</t>
+          <t xml:space="preserve"> 3.2603.0020.001-6</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1719,7 +1879,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1729,12 +1889,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1747,32 +1907,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> DET CLEAN CHLOR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.353916/2011-37</t>
+          <t xml:space="preserve"> 25351.550723/2021-39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.017-1</t>
+          <t xml:space="preserve"> 3.2603.0020.002-4</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1782,7 +1942,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1792,12 +1952,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1810,32 +1970,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> DET CLEAN CHLOR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.353916/2011-37</t>
+          <t xml:space="preserve"> 25351.016551/2022-50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.018-1</t>
+          <t xml:space="preserve"> 3.3499.0019.001-7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1845,22 +2005,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SEM VERSÃO + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1873,32 +2033,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> DET CLEAN CHLOR</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.353916/2011-37</t>
+          <t xml:space="preserve"> 25351.016551/2022-50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1155.0014.019-8</t>
+          <t xml:space="preserve"> 3.3499.0019.002-5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1908,22 +2068,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SEM VERSÃO + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1936,17 +2096,57 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02603-1</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCIL MAX</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016570/2022-86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3499.0020.003-9</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEM VERSÃO + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1959,27 +2159,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02603-1</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCIL MAX</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.550723/2021-39</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2603.0020.001-6</t>
+          <t xml:space="preserve"> 3.5098.0040.001-3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1994,7 +2194,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2004,7 +2204,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2022,27 +2222,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02603-1</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCIL MAX</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.550723/2021-39</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2603.0020.002-4</t>
+          <t xml:space="preserve"> 3.5098.0040.002-1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2057,7 +2257,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2067,7 +2267,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2085,17 +2285,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03499-0</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DET CLEAN CHLOR</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5098.0040.003-1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> . + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2108,27 +2348,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03499-0</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DET CLEAN CHLOR</t>
+          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016551/2022-50</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3499.0019.001-7</t>
+          <t xml:space="preserve"> 3.5098.0040.004-8</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2143,17 +2383,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEM VERSÃO + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2171,27 +2411,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03499-0</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DET CLEAN CHLOR</t>
+          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016551/2022-50</t>
+          <t xml:space="preserve"> 25351.020505/2022-55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3499.0019.002-5</t>
+          <t xml:space="preserve"> 3.2711.0040.001-7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2206,17 +2446,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEM VERSÃO + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2234,27 +2474,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03499-0</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DET CLEAN CHLOR</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016570/2022-86</t>
+          <t xml:space="preserve"> 25351.020505/2022-55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3499.0020.003-9</t>
+          <t xml:space="preserve"> 3.2711.0040.002-5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2269,17 +2509,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEM VERSÃO + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2297,17 +2537,57 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0007.001-2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2320,27 +2600,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.001-3</t>
+          <t xml:space="preserve"> 3.0754.0007.002-0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2355,7 +2635,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2365,7 +2645,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2383,27 +2663,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.002-1</t>
+          <t xml:space="preserve"> 3.0754.0007.003-9</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2418,7 +2698,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2428,7 +2708,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2446,27 +2726,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.003-1</t>
+          <t xml:space="preserve"> 3.0754.0007.004-7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2481,7 +2761,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2491,7 +2771,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2509,27 +2789,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.004-8</t>
+          <t xml:space="preserve"> 3.8012.0054.001-2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2544,7 +2824,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERSÃO 1 + FRASCO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2554,7 +2834,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2572,17 +2852,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8012.0054.002-0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERSÃO 1 + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2595,27 +2915,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020505/2022-55</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0040.001-7</t>
+          <t xml:space="preserve"> 3.8012.0054.003-9</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2630,7 +2950,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERSÃO 1 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2640,7 +2960,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2658,27 +2978,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
+          <t xml:space="preserve"> RTD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020505/2022-55</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0040.002-5</t>
+          <t xml:space="preserve"> 3.8012.0054.004-7</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2693,7 +3013,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERSÃO 1 + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2703,7 +3023,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2721,17 +3041,57 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> RTD</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.629633/2013-68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5569.0003.001-5</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2029</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2744,27 +3104,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> RTD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.629633/2013-68</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.001-2</t>
+          <t xml:space="preserve"> 3.5569.0003.002-3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2774,27 +3134,27 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2807,27 +3167,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.735731/2018-58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.002-0</t>
+          <t xml:space="preserve"> 3.5569.0013.002-8</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2837,27 +3197,27 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2870,32 +3230,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.003-9</t>
+          <t xml:space="preserve"> 3.0555.0001.001-7</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2905,7 +3265,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2915,7 +3275,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2933,32 +3293,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.004-7</t>
+          <t xml:space="preserve"> 3.0555.0001.002-5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2968,7 +3328,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + FILME PLASTICO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2978,7 +3338,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -2996,17 +3356,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0555.0001.003-3</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3019,32 +3419,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.001-2</t>
+          <t xml:space="preserve"> 3.0555.0001.004-1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3054,7 +3454,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + FRASCO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3064,7 +3464,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3082,32 +3482,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.002-0</t>
+          <t xml:space="preserve"> 3.0555.0001.005-1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3117,7 +3517,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MARINE + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3127,7 +3527,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3145,32 +3545,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.003-9</t>
+          <t xml:space="preserve"> 3.0555.0001.006-8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3180,7 +3580,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MARINE + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3190,7 +3590,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3208,32 +3608,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.004-7</t>
+          <t xml:space="preserve"> 3.0555.0001.007-6</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3243,7 +3643,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> CITRONELA + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3253,7 +3653,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3271,17 +3671,57 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0555.0001.008-4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CITRONELA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3294,57 +3734,57 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.629633/2013-68</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0003.001-5</t>
+          <t xml:space="preserve"> 3.0555.0001.009-2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> FLORAL + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3357,57 +3797,57 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> gelmeza peças industriais eireli me</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.10961-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> ALKAMEZA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.629633/2013-68</t>
+          <t xml:space="preserve"> 25351.020541/2022-19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0003.002-3</t>
+          <t xml:space="preserve"> 3.0555.0002.002-0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3420,27 +3860,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.735731/2018-58</t>
+          <t xml:space="preserve"> 25351.014301/2022-85</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0013.002-8</t>
+          <t xml:space="preserve"> 3.0961.0001.001-7</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3450,12 +3890,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA OPACA + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3470,7 +3910,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3483,17 +3923,57 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6203.0003.001-1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3506,32 +3986,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.001-7</t>
+          <t xml:space="preserve"> 3.6203.0003.002-8</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3541,7 +4021,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3551,7 +4031,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3569,32 +4049,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.002-5</t>
+          <t xml:space="preserve"> 3.6203.0003.003-6</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3604,7 +4084,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3614,7 +4094,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3632,32 +4112,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.003-3</t>
+          <t xml:space="preserve"> 3.6203.0003.004-4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3667,7 +4147,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3677,7 +4157,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3695,32 +4175,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.004-1</t>
+          <t xml:space="preserve"> 3.6203.0003.005-2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3730,7 +4210,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3740,7 +4220,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3758,32 +4238,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.005-1</t>
+          <t xml:space="preserve"> 3.6203.0003.006-0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3793,7 +4273,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3803,7 +4283,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3821,27 +4301,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.006-8</t>
+          <t xml:space="preserve"> 3.9715.0002.001-1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3856,7 +4336,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Eucalipto + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3866,7 +4346,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3884,27 +4364,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.007-6</t>
+          <t xml:space="preserve"> 3.9715.0002.002-1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3919,7 +4399,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CITRONELA + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Eucalipto + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3929,7 +4409,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3947,27 +4427,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.008-4</t>
+          <t xml:space="preserve"> 3.9715.0002.003-8</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3982,7 +4462,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CITRONELA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3992,7 +4472,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4010,27 +4490,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.009-2</t>
+          <t xml:space="preserve"> 3.9715.0002.004-6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4045,7 +4525,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4055,7 +4535,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4073,27 +4553,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020541/2022-19</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0002.002-0</t>
+          <t xml:space="preserve"> 3.9715.0002.005-4</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4108,7 +4588,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4118,7 +4598,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4136,17 +4616,57 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gelmeza peças industriais eireli me</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10961-2</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALKAMEZA</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9715.0002.006-2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4679,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gelmeza peças industriais eireli me</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10961-2</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALKAMEZA</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014301/2022-85</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0961.0001.001-7</t>
+          <t xml:space="preserve"> 3.9715.0002.007-0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4194,17 +4714,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA OPACA + FILME PLASTICO</t>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4222,17 +4742,57 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> HARLEI NEANDER KAPTEINAT - ME</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.03608-6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> SODA CÁUSTICA EM ESCAMAS LIMZA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9715.0002.008-9</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4245,32 +4805,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMICA GAUCHA LTDA - ME</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.07616-9</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> MAGIC EDX</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.587594/2020-53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.001-1</t>
+          <t xml:space="preserve"> 3.3608.0007.001-0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4280,7 +4840,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> POTE DE PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4290,12 +4850,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 387 Registro de Produto de Risco 2 - Detergentes e Congêneres</t>
         </is>
       </c>
     </row>
@@ -4308,32 +4868,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.014259/2022-01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.002-8</t>
+          <t xml:space="preserve"> 3.7616.0008.001-6</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4343,7 +4903,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERSÃO 1 + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4353,7 +4913,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4371,27 +4931,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.003-6</t>
+          <t xml:space="preserve"> 3.6631.0035.001-4</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4406,7 +4966,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4416,7 +4976,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4434,27 +4994,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.004-4</t>
+          <t xml:space="preserve"> 3.6631.0035.002-2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4469,7 +5029,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4479,7 +5039,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4497,27 +5057,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.005-2</t>
+          <t xml:space="preserve"> 3.6631.0035.003-0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4532,7 +5092,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4542,7 +5102,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4560,27 +5120,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.006-0</t>
+          <t xml:space="preserve"> 3.6631.0035.004-9</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4595,7 +5155,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4605,7 +5165,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4623,17 +5183,57 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6631.0035.005-7</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4646,32 +5246,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.001-1</t>
+          <t xml:space="preserve"> 3.6631.0035.006-5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4681,7 +5281,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eucalipto + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4691,7 +5291,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4709,32 +5309,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.002-1</t>
+          <t xml:space="preserve"> 3.6631.0035.007-3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4744,7 +5344,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eucalipto + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4754,7 +5354,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4772,32 +5372,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.003-8</t>
+          <t xml:space="preserve"> 3.6631.0035.008-1</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4807,7 +5407,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4817,7 +5417,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4835,32 +5435,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.004-6</t>
+          <t xml:space="preserve"> 3.6631.0035.009-1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4870,7 +5470,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4880,7 +5480,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4898,32 +5498,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.005-4</t>
+          <t xml:space="preserve"> 3.6631.0035.010-3</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4933,7 +5533,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4943,7 +5543,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4961,32 +5561,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.006-2</t>
+          <t xml:space="preserve"> 3.6631.0035.011-1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4996,7 +5596,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5006,7 +5606,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5024,32 +5624,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.007-0</t>
+          <t xml:space="preserve"> 3.6631.0035.012-1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5059,7 +5659,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5069,7 +5669,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5087,32 +5687,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.008-9</t>
+          <t xml:space="preserve"> 3.6631.0035.013-8</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5122,7 +5722,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5132,7 +5732,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5150,17 +5750,57 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HARLEI NEANDER KAPTEINAT - ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03608-6</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SODA CÁUSTICA EM ESCAMAS LIMZA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6631.0035.014-6</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5173,32 +5813,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HARLEI NEANDER KAPTEINAT - ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03608-6</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SODA CÁUSTICA EM ESCAMAS LIMZA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.587594/2020-53</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3608.0007.001-0</t>
+          <t xml:space="preserve"> 3.6631.0035.015-4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5208,7 +5848,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTE DE PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5218,12 +5858,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 387 Registro de Produto de Risco 2 - Detergentes e Congêneres</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5236,17 +5876,57 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMICA GAUCHA LTDA - ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07616-9</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAGIC EDX</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6631.0035.016-2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5259,32 +5939,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMICA GAUCHA LTDA - ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07616-9</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAGIC EDX</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014259/2022-01</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7616.0008.001-6</t>
+          <t xml:space="preserve"> 3.6631.0035.017-0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5294,7 +5974,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5304,7 +5984,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5335,6 +6015,46 @@
           <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6631.0035.018-9</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5365,7 +6085,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.001-4</t>
+          <t xml:space="preserve"> 3.6631.0035.019-7</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5380,7 +6100,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5428,7 +6148,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.002-2</t>
+          <t xml:space="preserve"> 3.6631.0035.020-0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5443,7 +6163,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5491,7 +6211,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.003-0</t>
+          <t xml:space="preserve"> 3.6631.0035.021-9</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5506,7 +6226,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5554,7 +6274,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.004-9</t>
+          <t xml:space="preserve"> 3.6631.0035.022-7</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5569,7 +6289,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5617,7 +6337,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.005-7</t>
+          <t xml:space="preserve"> 3.6631.0035.023-5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5632,7 +6352,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5680,7 +6400,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.006-5</t>
+          <t xml:space="preserve"> 3.6631.0035.024-3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5695,7 +6415,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5743,7 +6463,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.007-3</t>
+          <t xml:space="preserve"> 3.6631.0035.025-1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5758,7 +6478,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5806,7 +6526,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.008-1</t>
+          <t xml:space="preserve"> 3.6631.0035.026-1</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5821,7 +6541,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5869,7 +6589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.009-1</t>
+          <t xml:space="preserve"> 3.6631.0035.027-8</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5884,7 +6604,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5932,7 +6652,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.010-3</t>
+          <t xml:space="preserve"> 3.6631.0035.028-6</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5947,7 +6667,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5995,7 +6715,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.011-1</t>
+          <t xml:space="preserve"> 3.6631.0035.029-4</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6010,7 +6730,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6058,7 +6778,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.012-1</t>
+          <t xml:space="preserve"> 3.6631.0035.030-8</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6073,7 +6793,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6121,7 +6841,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.013-8</t>
+          <t xml:space="preserve"> 3.6631.0035.031-6</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6136,7 +6856,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6184,7 +6904,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.014-6</t>
+          <t xml:space="preserve"> 3.6631.0035.032-4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6199,7 +6919,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6247,7 +6967,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.015-4</t>
+          <t xml:space="preserve"> 3.6631.0035.033-2</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6262,7 +6982,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6310,7 +7030,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.016-2</t>
+          <t xml:space="preserve"> 3.6631.0035.034-0</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6325,7 +7045,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6373,7 +7093,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.017-0</t>
+          <t xml:space="preserve"> 3.6631.0035.035-9</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -6388,7 +7108,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6436,7 +7156,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.018-9</t>
+          <t xml:space="preserve"> 3.6631.0035.036-7</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6451,7 +7171,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6499,7 +7219,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.019-7</t>
+          <t xml:space="preserve"> 3.6631.0035.037-5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -6514,7 +7234,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6562,7 +7282,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.020-0</t>
+          <t xml:space="preserve"> 3.6631.0035.038-3</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -6577,7 +7297,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6625,7 +7345,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.021-9</t>
+          <t xml:space="preserve"> 3.6631.0035.039-1</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6640,7 +7360,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6688,7 +7408,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.022-7</t>
+          <t xml:space="preserve"> 3.6631.0035.040-5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6703,7 +7423,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6751,7 +7471,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.023-5</t>
+          <t xml:space="preserve"> 3.6631.0035.041-3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -6766,7 +7486,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6814,7 +7534,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.024-3</t>
+          <t xml:space="preserve"> 3.6631.0035.042-1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -6829,7 +7549,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6877,7 +7597,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.025-1</t>
+          <t xml:space="preserve"> 3.6631.0035.043-1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6892,7 +7612,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6940,7 +7660,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.026-1</t>
+          <t xml:space="preserve"> 3.6631.0035.044-8</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6955,7 +7675,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7003,7 +7723,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.027-8</t>
+          <t xml:space="preserve"> 3.6631.0035.045-6</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7018,7 +7738,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7066,7 +7786,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.028-6</t>
+          <t xml:space="preserve"> 3.6631.0035.046-4</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7081,7 +7801,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7129,7 +7849,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.029-4</t>
+          <t xml:space="preserve"> 3.6631.0035.047-2</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7144,7 +7864,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7192,7 +7912,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.030-8</t>
+          <t xml:space="preserve"> 3.6631.0035.048-0</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7207,7 +7927,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7255,7 +7975,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.031-6</t>
+          <t xml:space="preserve"> 3.6631.0035.049-9</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7270,7 +7990,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7318,7 +8038,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.032-4</t>
+          <t xml:space="preserve"> 3.6631.0035.050-2</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7333,7 +8053,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7381,7 +8101,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.033-2</t>
+          <t xml:space="preserve"> 3.6631.0035.051-0</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -7396,7 +8116,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7444,7 +8164,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.034-0</t>
+          <t xml:space="preserve"> 3.6631.0035.052-9</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -7459,7 +8179,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7507,7 +8227,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.035-9</t>
+          <t xml:space="preserve"> 3.6631.0035.053-7</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -7522,7 +8242,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7570,7 +8290,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.036-7</t>
+          <t xml:space="preserve"> 3.6631.0035.054-5</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7585,7 +8305,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7633,7 +8353,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.037-5</t>
+          <t xml:space="preserve"> 3.6631.0035.055-3</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -7648,7 +8368,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7696,7 +8416,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.038-3</t>
+          <t xml:space="preserve"> 3.6631.0035.056-1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -7711,7 +8431,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7759,7 +8479,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.039-1</t>
+          <t xml:space="preserve"> 3.6631.0035.057-1</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7774,7 +8494,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7822,7 +8542,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.040-5</t>
+          <t xml:space="preserve"> 3.6631.0035.058-8</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7837,7 +8557,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7885,7 +8605,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.041-3</t>
+          <t xml:space="preserve"> 3.6631.0035.059-6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7900,7 +8620,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7948,7 +8668,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.042-1</t>
+          <t xml:space="preserve"> 3.6631.0035.060-1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7963,7 +8683,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8011,7 +8731,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.043-1</t>
+          <t xml:space="preserve"> 3.6631.0035.061-8</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8026,7 +8746,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8074,7 +8794,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.044-8</t>
+          <t xml:space="preserve"> 3.6631.0035.062-6</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8089,7 +8809,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8137,7 +8857,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.045-6</t>
+          <t xml:space="preserve"> 3.6631.0035.063-4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8152,7 +8872,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8200,7 +8920,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.046-4</t>
+          <t xml:space="preserve"> 3.6631.0035.064-2</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8215,7 +8935,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8263,7 +8983,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.047-2</t>
+          <t xml:space="preserve"> 3.6631.0035.065-0</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8278,7 +8998,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8326,7 +9046,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.048-0</t>
+          <t xml:space="preserve"> 3.6631.0035.066-9</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -8341,7 +9061,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8389,7 +9109,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.049-9</t>
+          <t xml:space="preserve"> 3.6631.0035.067-7</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -8404,7 +9124,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8452,7 +9172,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.050-2</t>
+          <t xml:space="preserve"> 3.6631.0035.068-5</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -8467,7 +9187,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8515,7 +9235,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.051-0</t>
+          <t xml:space="preserve"> 3.6631.0035.069-3</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -8530,7 +9250,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8578,7 +9298,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.052-9</t>
+          <t xml:space="preserve"> 3.6631.0035.070-7</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -8593,7 +9313,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8641,7 +9361,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.053-7</t>
+          <t xml:space="preserve"> 3.6631.0035.071-5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8656,7 +9376,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8704,7 +9424,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.054-5</t>
+          <t xml:space="preserve"> 3.6631.0035.072-3</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8719,7 +9439,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8767,7 +9487,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.055-3</t>
+          <t xml:space="preserve"> 3.6631.0035.073-1</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8782,7 +9502,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8830,7 +9550,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.056-1</t>
+          <t xml:space="preserve"> 3.6631.0035.074-1</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -8845,7 +9565,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8893,7 +9613,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.057-1</t>
+          <t xml:space="preserve"> 3.6631.0035.075-8</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -8908,7 +9628,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8956,7 +9676,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.058-8</t>
+          <t xml:space="preserve"> 3.6631.0035.076-6</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -8971,7 +9691,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9019,7 +9739,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.059-6</t>
+          <t xml:space="preserve"> 3.6631.0035.077-4</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9034,7 +9754,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9082,7 +9802,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.060-1</t>
+          <t xml:space="preserve"> 3.6631.0035.078-2</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9097,7 +9817,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9145,7 +9865,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.061-8</t>
+          <t xml:space="preserve"> 3.6631.0035.079-0</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9160,7 +9880,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9188,17 +9908,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -9208,7 +9928,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.062-6</t>
+          <t xml:space="preserve"> 3.6631.0035.080-4</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -9223,7 +9943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9251,47 +9971,47 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.207379/2020-80</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.063-4</t>
+          <t xml:space="preserve"> 3.1940.0036.001-6</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9301,7 +10021,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -9314,47 +10034,47 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.207379/2020-80</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.064-2</t>
+          <t xml:space="preserve"> 3.1940.0036.002-4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9364,7 +10084,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -9377,47 +10097,47 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.207398/2020-14</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.065-0</t>
+          <t xml:space="preserve"> 3.1940.0035.002-9</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9427,7 +10147,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -9440,32 +10160,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.066-9</t>
+          <t xml:space="preserve"> 3.3231.0011.001-5</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9475,7 +10195,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> ALFAZEMA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9503,32 +10223,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.067-7</t>
+          <t xml:space="preserve"> 3.3231.0011.002-3</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -9538,7 +10258,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> CAMPESTRE + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -9566,32 +10286,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.068-5</t>
+          <t xml:space="preserve"> 3.3231.0011.003-1</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -9601,7 +10321,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESOLUX + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9629,32 +10349,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.069-3</t>
+          <t xml:space="preserve"> 3.3231.0011.004-1</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -9664,7 +10384,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9692,32 +10412,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.070-7</t>
+          <t xml:space="preserve"> 3.3231.0011.005-8</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -9727,7 +10447,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> TALCO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9755,32 +10475,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.071-5</t>
+          <t xml:space="preserve"> 3.3231.0011.006-6</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -9790,7 +10510,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9818,32 +10538,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.072-3</t>
+          <t xml:space="preserve"> 3.3231.0011.007-4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -9853,7 +10573,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -9881,32 +10601,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.073-1</t>
+          <t xml:space="preserve"> 3.3231.0011.008-2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -9916,7 +10636,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9944,32 +10664,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.016590/2022-57</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.074-1</t>
+          <t xml:space="preserve"> 3.5271.0029.001-9</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9979,7 +10699,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> TRADICIONAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9989,7 +10709,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -10007,32 +10727,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.016590/2022-57</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.075-8</t>
+          <t xml:space="preserve"> 3.5271.0029.002-7</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -10042,7 +10762,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10052,7 +10772,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -10070,32 +10790,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.076-6</t>
+          <t xml:space="preserve"> 3.7934.0011.001-7</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -10105,7 +10825,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10115,7 +10835,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -10133,32 +10853,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.077-4</t>
+          <t xml:space="preserve"> 3.7934.0011.002-5</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -10168,7 +10888,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10178,7 +10898,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -10196,32 +10916,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> LG CLEAN FABRICACAO DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.10290-4</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA LG CLEAN</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.078-2</t>
+          <t xml:space="preserve"> 3.7934.0011.003-3</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -10231,7 +10951,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10241,7 +10961,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -10259,32 +10979,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.891762/2021-93</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.079-0</t>
+          <t xml:space="preserve"> 3.0290.0001.001-9</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -10294,17 +11014,17 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO GOTEJADOR + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -10322,32 +11042,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.080-4</t>
+          <t xml:space="preserve"> 3.3901.0006.001-4</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -10357,7 +11077,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Única + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10385,17 +11105,57 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3901.0006.002-2</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Única + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10408,27 +11168,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> LS PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.10126-9</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> ÁCIDO MURIÁTICO DULAR</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207379/2020-80</t>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0036.001-6</t>
+          <t xml:space="preserve"> 3.3901.0006.003-0</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -10438,17 +11198,17 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Única + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -10458,7 +11218,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10471,27 +11231,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> MUSTANG PLURON QUÍMICA LTDA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.00546-2</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> SAMPROX-H 5%</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207379/2020-80</t>
+          <t xml:space="preserve"> 25351.089675/2021-73</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0036.002-4</t>
+          <t xml:space="preserve"> 3.0126.0008.001-3</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -10501,27 +11261,27 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> NÃO APRESENTA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222033 LIMPA PISOS</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10534,57 +11294,53 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207398/2020-14</t>
+          <t xml:space="preserve"> 25351.188042/2019-22</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0035.002-9</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0546.3162.001-5</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 9 Meses</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3204014 ESTERILIZANTE</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 312 REG. SANEANTES - Mudança de Categoria de Produto</t>
         </is>
       </c>
     </row>
@@ -10597,17 +11353,57 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8335.0002.001-2</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUAS MARINHAS + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10620,32 +11416,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.001-5</t>
+          <t xml:space="preserve"> 3.8335.0002.002-0</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -10655,7 +11451,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFAZEMA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÁGUAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10683,32 +11479,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.002-3</t>
+          <t xml:space="preserve"> 3.8335.0002.003-9</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -10718,7 +11514,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CAMPESTRE + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -10746,32 +11542,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.003-1</t>
+          <t xml:space="preserve"> 3.8335.0002.004-7</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -10781,7 +11577,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESOLUX + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10809,27 +11605,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.004-1</t>
+          <t xml:space="preserve"> 3.0013.0010.001-3</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -10844,7 +11640,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10872,27 +11668,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.005-8</t>
+          <t xml:space="preserve"> 3.0013.0010.002-1</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -10907,7 +11703,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10935,27 +11731,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.006-6</t>
+          <t xml:space="preserve"> 3.0013.0010.003-1</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -10970,7 +11766,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10998,27 +11794,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> PROLIMPO-INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA - EPP</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.01429-5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> MAGNUM CHM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.007-4</t>
+          <t xml:space="preserve"> 3.0013.0010.004-8</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -11033,7 +11829,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11061,42 +11857,42 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.03075-4</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> DOMITEC DC 550</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.465446/2011-17</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.008-2</t>
+          <t xml:space="preserve"> 3.1429.0004.001-5</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 01/2027</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11106,12 +11902,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
         </is>
       </c>
     </row>
@@ -11124,17 +11920,57 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.03075-4</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
+          <t xml:space="preserve"> DOMITEC DC 550</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.790437/2021-12</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3075.0010.001-5</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -11147,27 +11983,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> RIZELAR INDUSTRIA E COMERCIO DE ARTIGOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.01874-9</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
+          <t xml:space="preserve"> ÁLCOOL RIZELAR</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016590/2022-57</t>
+          <t xml:space="preserve"> 25351.790437/2021-12</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0029.001-9</t>
+          <t xml:space="preserve"> 3.3075.0010.002-3</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -11182,7 +12018,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11192,7 +12028,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -11210,27 +12046,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
+          <t xml:space="preserve"> TECPON BG 10</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016590/2022-57</t>
+          <t xml:space="preserve"> 25351.014305/2022-63</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0029.002-7</t>
+          <t xml:space="preserve"> 3.1874.0033.001-4</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -11245,7 +12081,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -11255,7 +12091,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -11273,17 +12109,57 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> TECPON BG 10</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0074.001-1</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -11296,32 +12172,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> TECPON BG 10</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.001-7</t>
+          <t xml:space="preserve"> 3.1780.0074.002-1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -11331,7 +12207,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -11341,7 +12217,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -11359,32 +12235,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> TECPON BG 10</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.002-5</t>
+          <t xml:space="preserve"> 3.1780.0074.003-8</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -11394,7 +12270,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11404,7 +12280,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -11422,32 +12298,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> Z S FABRICANTE DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.09287-5</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> OMINIRID DESINFETANTE</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.003-3</t>
+          <t xml:space="preserve"> 3.1780.0074.004-6</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -11457,7 +12333,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11467,7 +12343,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -11485,1604 +12361,55 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LG CLEAN FABRICACAO DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> Z S FABRICANTE DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10290-4</t>
+          <t xml:space="preserve"> 3.09287-5</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA LG CLEAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LG CLEAN FABRICACAO DE PRODUTOS DE LIMPEZA LTDA</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.10290-4</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA LG CLEAN</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.891762/2021-93</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0290.0001.001-9</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
+          <t xml:space="preserve"> OMINIRID DESINFETANTE</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.100465/2021-43</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9287.0003.001-1</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO GOTEJADOR + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03901-7</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03901-7</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3901.0006.001-4</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Única + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03901-7</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3901.0006.002-2</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Única + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03901-7</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3901.0006.003-0</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Única + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LS PRODUTOS DE LIMPEZA EIRELI</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.10126-9</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁCIDO MURIÁTICO DULAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LS PRODUTOS DE LIMPEZA EIRELI</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.10126-9</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁCIDO MURIÁTICO DULAR</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.089675/2021-73</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0126.0008.001-3</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NÃO APRESENTA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222033 LIMPA PISOS</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MUSTANG PLURON QUÍMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00546-2</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SAMPROX-H 5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MUSTANG PLURON QUÍMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00546-2</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SAMPROX-H 5%</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.188042/2019-22</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0546.3162.001-5</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05/2029</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 Meses</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3204014 ESTERILIZANTE</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 312 REG. SANEANTES - Mudança de Categoria de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08335-4</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08335-4</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8335.0002.001-2</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUAS MARINHAS + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08335-4</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8335.0002.002-0</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08335-4</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8335.0002.003-9</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08335-4</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8335.0002.004-7</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00013-0</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00013-0</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0013.0010.001-3</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00013-0</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0013.0010.002-1</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00013-0</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0013.0010.003-1</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00013-0</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0013.0010.004-8</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PROLIMPO-INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA - EPP</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01429-5</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MAGNUM CHM</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PROLIMPO-INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA - EPP</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01429-5</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MAGNUM CHM</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.465446/2011-17</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1429.0004.001-5</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2027</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03075-4</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOMITEC DC 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03075-4</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOMITEC DC 550</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.790437/2021-12</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3075.0010.001-5</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + FILME DE POLIETILENO</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03075-4</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOMITEC DC 550</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.790437/2021-12</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3075.0010.002-3</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RIZELAR INDUSTRIA E COMERCIO DE ARTIGOS DE LIMPEZA LTDA EPP</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01874-9</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁLCOOL RIZELAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RIZELAR INDUSTRIA E COMERCIO DE ARTIGOS DE LIMPEZA LTDA EPP</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01874-9</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁLCOOL RIZELAR</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.014305/2022-63</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1874.0033.001-4</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01780-6</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01780-6</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1780.0074.001-1</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01780-6</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1780.0074.002-1</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01780-6</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1780.0074.003-8</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
-</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01780-6</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1780.0074.004-6</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="H192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÚNICA + FRASCO DE PLÁSTICO TRANSLÚCIDO COM GATILHO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>

--- a/2022_09_12_query/RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,21 +433,6 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ADAURI DONIZETE DA SILVA &amp; CIA LTDA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.06123-9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUALY CLOR</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -458,17 +443,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALI CLEAN INDUSTRIA E COMERCIO LTDA - ME</t>
+          <t xml:space="preserve"> ADAURI DONIZETE DA SILVA &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06769-1</t>
+          <t xml:space="preserve"> 3.06123-9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
+          <t xml:space="preserve"> QUALY CLOR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -647,17 +632,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atomos Quimica e Produtos de Limpeza Ltda</t>
+          <t xml:space="preserve"> ALI CLEAN INDUSTRIA E COMERCIO LTDA - ME</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05670-1</t>
+          <t xml:space="preserve"> 3.06769-1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP</t>
+          <t xml:space="preserve"> MASTER CLEAN DETERGENTE DESINCRUSTANTE ACIDO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -710,17 +695,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> Atomos Quimica e Produtos de Limpeza Ltda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.05670-1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE CLORADO HIPO 12 CLARILIMP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1214,17 +1199,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01155-8</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
+          <t xml:space="preserve"> PINHO BRIL PLUS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1781,17 +1766,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
+          <t xml:space="preserve"> BRANNEVE INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02603-1</t>
+          <t xml:space="preserve"> 3.01155-8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRASCIL MAX</t>
+          <t xml:space="preserve"> DESINFETANTE ESTRELA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1907,17 +1892,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
+          <t xml:space="preserve"> BRASCOM DO NORDESTE INDÚSTRIA E COMÉRCIO LTDA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03499-0</t>
+          <t xml:space="preserve"> 3.02603-1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DET CLEAN CHLOR</t>
+          <t xml:space="preserve"> BRASCIL MAX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2096,27 +2081,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> DET CLEAN CHLOR</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016570/2022-86</t>
+          <t xml:space="preserve"> 25351.016551/2022-50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3499.0020.003-9</t>
+          <t xml:space="preserve"> 3.3499.0019.003-3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2159,27 +2144,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> DETERGENTE CLORADO - GERAL QUÍMICA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.016570/2022-86</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.001-3</t>
+          <t xml:space="preserve"> 3.3499.0020.001-2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2194,17 +2179,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> SEM VERSÃO + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2222,27 +2207,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> DETERGENTE CLORADO - GERAL QUÍMICA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.016570/2022-86</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.002-1</t>
+          <t xml:space="preserve"> 3.3499.0020.002-0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2257,17 +2242,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SEM VERSÃO + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2285,27 +2270,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> BRILHO XIKE PRODUTOS DE LIMPEZA LTDA- ME</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05098-7</t>
+          <t xml:space="preserve"> 3.03499-0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
+          <t xml:space="preserve"> DETERGENTE CLORADO - GERAL QUÍMICA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346594/2021-86</t>
+          <t xml:space="preserve"> 25351.016570/2022-86</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.003-1</t>
+          <t xml:space="preserve"> 3.3499.0020.003-9</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2320,17 +2305,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> SEM VERSÃO + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2348,17 +2333,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2368,7 +2353,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5098.0040.004-8</t>
+          <t xml:space="preserve"> 3.5098.0040.001-3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2383,7 +2368,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2411,27 +2396,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020505/2022-55</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0040.001-7</t>
+          <t xml:space="preserve"> 3.5098.0040.002-1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2446,7 +2431,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2456,7 +2441,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2474,27 +2459,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020505/2022-55</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0040.002-5</t>
+          <t xml:space="preserve"> 3.5098.0040.003-1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2509,7 +2494,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> . + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2519,7 +2504,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2537,27 +2522,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> CHRISTEYNS BRASIL - PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.05098-7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> MIDA FLOW 115 MS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.346594/2021-86</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.001-2</t>
+          <t xml:space="preserve"> 3.5098.0040.004-8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2572,7 +2557,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> . + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2582,7 +2567,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2600,27 +2585,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.020505/2022-55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.002-0</t>
+          <t xml:space="preserve"> 3.2711.0040.001-7</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2635,7 +2620,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> . + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2645,7 +2630,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2663,27 +2648,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
+          <t xml:space="preserve"> DETERGENTE LÍQUIDO PARA ROUPAS E TECIDOS BLANCO BV</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023444/2022-88</t>
+          <t xml:space="preserve"> 25351.020505/2022-55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.003-9</t>
+          <t xml:space="preserve"> 3.2711.0040.002-5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2698,7 +2683,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> . + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2708,7 +2693,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2726,17 +2711,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2746,7 +2731,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0007.004-7</t>
+          <t xml:space="preserve"> 3.0754.0007.001-2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2761,7 +2746,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2789,27 +2774,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.001-2</t>
+          <t xml:space="preserve"> 3.0754.0007.002-0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2824,7 +2809,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + FRASCO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2834,7 +2819,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2852,27 +2837,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.002-0</t>
+          <t xml:space="preserve"> 3.0754.0007.003-9</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2887,7 +2872,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2897,7 +2882,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2915,27 +2900,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08012-8</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REMOLIMP ALCA</t>
+          <t xml:space="preserve"> ÁLCOOL ETÍLICO LÍQUIDO 70 ºINPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023459/2022-46</t>
+          <t xml:space="preserve"> 25351.023444/2022-88</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.003-9</t>
+          <t xml:space="preserve"> 3.0754.0007.004-7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2950,7 +2935,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2960,7 +2945,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2978,17 +2963,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2998,7 +2983,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8012.0054.004-7</t>
+          <t xml:space="preserve"> 3.8012.0054.001-2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3013,7 +2998,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERSÃO 1 + FRASCO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3041,27 +3026,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.629633/2013-68</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0003.001-5</t>
+          <t xml:space="preserve"> 3.8012.0054.002-0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3071,17 +3056,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> VERSÃO 1 + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3091,7 +3076,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3104,27 +3089,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELAVAL LTDA</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05569-4</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RTD</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.629633/2013-68</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0003.002-3</t>
+          <t xml:space="preserve"> 3.8012.0054.003-9</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3134,17 +3119,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO</t>
+          <t xml:space="preserve"> VERSÃO 1 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3154,7 +3139,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3167,27 +3152,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> C-TEC INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA ME</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.08012-8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> REMOLIMP ALCA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.735731/2018-58</t>
+          <t xml:space="preserve"> 25351.023459/2022-46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5569.0013.002-8</t>
+          <t xml:space="preserve"> 3.8012.0054.004-7</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3197,17 +3182,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
+          <t xml:space="preserve"> VERSÃO 1 + TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3217,7 +3202,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3230,57 +3215,57 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> RTD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.629633/2013-68</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.001-7</t>
+          <t xml:space="preserve"> 3.5569.0003.001-5</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3293,57 +3278,57 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> RTD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.629633/2013-68</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.002-5</t>
+          <t xml:space="preserve"> 3.5569.0003.002-3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3356,57 +3341,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> RTD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.629633/2013-68</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.003-3</t>
+          <t xml:space="preserve"> 3.5569.0003.003-1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TAMBOR PLASTICO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3419,57 +3404,57 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DELLA-SUPER</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.735731/2018-58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.004-1</t>
+          <t xml:space="preserve"> 3.5569.0013.001-1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3482,57 +3467,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> DELAVAL LTDA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10555-1</t>
+          <t xml:space="preserve"> 3.05569-4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
+          <t xml:space="preserve"> DELLA-SUPER</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020540/2022-74</t>
+          <t xml:space="preserve"> 25351.735731/2018-58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.005-1</t>
+          <t xml:space="preserve"> 3.5569.0013.002-8</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3550,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.006-8</t>
+          <t xml:space="preserve"> 3.0555.0001.001-7</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3580,7 +3565,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3628,7 +3613,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.007-6</t>
+          <t xml:space="preserve"> 3.0555.0001.002-5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3643,7 +3628,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CITRONELA + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3691,7 +3676,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.008-4</t>
+          <t xml:space="preserve"> 3.0555.0001.003-3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3706,7 +3691,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CITRONELA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3754,7 +3739,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0001.009-2</t>
+          <t xml:space="preserve"> 3.0555.0001.004-1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3769,7 +3754,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3797,27 +3782,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gelmeza peças industriais eireli me</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10961-2</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALKAMEZA</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020541/2022-19</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0555.0002.002-0</t>
+          <t xml:space="preserve"> 3.0555.0001.005-1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3832,7 +3817,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MARINE + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3842,7 +3827,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3860,32 +3845,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014301/2022-85</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0961.0001.001-7</t>
+          <t xml:space="preserve"> 3.0555.0001.006-8</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3895,17 +3880,17 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA OPACA + FILME PLASTICO</t>
+          <t xml:space="preserve"> MARINE + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3923,32 +3908,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.001-1</t>
+          <t xml:space="preserve"> 3.0555.0001.007-6</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3958,7 +3943,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> CITRONELA + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3968,7 +3953,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3986,32 +3971,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.002-8</t>
+          <t xml:space="preserve"> 3.0555.0001.008-4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4021,7 +4006,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> CITRONELA + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4031,7 +4016,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4049,32 +4034,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.003-6</t>
+          <t xml:space="preserve"> 3.0555.0001.009-2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4084,7 +4069,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FLORAL + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4094,7 +4079,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4112,32 +4097,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> DESINFETANTE - BIG POWER</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020540/2022-74</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.004-4</t>
+          <t xml:space="preserve"> 3.0555.0001.010-6</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4147,7 +4132,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4157,7 +4142,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4175,32 +4160,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06203-5</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus - Gênesis</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA - BIG POWER</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020541/2022-19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.005-2</t>
+          <t xml:space="preserve"> 3.0555.0002.001-2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4210,7 +4195,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4220,7 +4205,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4238,32 +4223,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> ECO POWER PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.10555-1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA - BIG POWER</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.194957/2021-91</t>
+          <t xml:space="preserve"> 25351.020541/2022-19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6203.0003.006-0</t>
+          <t xml:space="preserve"> 3.0555.0002.002-0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4273,7 +4258,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4283,7 +4268,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4301,32 +4286,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> gelmeza peças industriais eireli me</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.10961-2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> ALKAMEZA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.014301/2022-85</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.001-1</t>
+          <t xml:space="preserve"> 3.0961.0001.001-7</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4336,17 +4321,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eucalipto + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA OPACA + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4364,32 +4349,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.002-1</t>
+          <t xml:space="preserve"> 3.6203.0003.001-1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4399,7 +4384,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eucalipto + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4409,7 +4394,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4427,32 +4412,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.003-8</t>
+          <t xml:space="preserve"> 3.6203.0003.002-8</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4462,7 +4447,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Roxo - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4472,7 +4457,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4490,32 +4475,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.004-6</t>
+          <t xml:space="preserve"> 3.6203.0003.003-6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4525,7 +4510,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4535,7 +4520,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4553,32 +4538,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.005-4</t>
+          <t xml:space="preserve"> 3.6203.0003.004-4</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4588,7 +4573,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Incolor - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4598,7 +4583,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4616,32 +4601,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.006-2</t>
+          <t xml:space="preserve"> 3.6203.0003.005-2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4651,7 +4636,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4661,7 +4646,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4679,32 +4664,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> GENESIS INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA-ME</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09715-3</t>
+          <t xml:space="preserve"> 3.06203-5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
+          <t xml:space="preserve"> Inter Plus - Gênesis</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020520/2022-01</t>
+          <t xml:space="preserve"> 25351.194957/2021-91</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.007-0</t>
+          <t xml:space="preserve"> 3.6203.0003.006-0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4714,7 +4699,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Inter Plus Verde - Gênesis + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4724,7 +4709,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4742,17 +4727,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HARLEI NEANDER KAPTEINAT - ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03608-6</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SODA CÁUSTICA EM ESCAMAS LIMZA</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4762,7 +4747,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9715.0002.008-9</t>
+          <t xml:space="preserve"> 3.9715.0002.001-1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4777,7 +4762,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Eucalipto + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4805,27 +4790,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMICA GAUCHA LTDA - ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07616-9</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAGIC EDX</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.587594/2020-53</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3608.0007.001-0</t>
+          <t xml:space="preserve"> 3.9715.0002.002-1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4840,7 +4825,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTE DE PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Eucalipto + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4850,12 +4835,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 387 Registro de Produto de Risco 2 - Detergentes e Congêneres</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4868,27 +4853,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014259/2022-01</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7616.0008.001-6</t>
+          <t xml:space="preserve"> 3.9715.0002.003-8</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4903,7 +4888,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4913,7 +4898,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4931,32 +4916,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.001-4</t>
+          <t xml:space="preserve"> 3.9715.0002.004-6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4966,7 +4951,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4976,7 +4961,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4994,32 +4979,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.002-2</t>
+          <t xml:space="preserve"> 3.9715.0002.005-4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5029,7 +5014,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5039,7 +5024,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5057,32 +5042,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.003-0</t>
+          <t xml:space="preserve"> 3.9715.0002.006-2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5092,7 +5077,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5102,7 +5087,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5120,32 +5105,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.004-9</t>
+          <t xml:space="preserve"> 3.9715.0002.007-0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5155,7 +5140,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5165,7 +5150,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5183,32 +5168,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> GSL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.09715-3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE YLÁ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.020520/2022-01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.005-7</t>
+          <t xml:space="preserve"> 3.9715.0002.008-9</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5218,7 +5203,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5228,7 +5213,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5246,32 +5231,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> HARLEI NEANDER KAPTEINAT - ME</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.03608-6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> SODA CÁUSTICA EM ESCAMAS LIMZA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.587594/2020-53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.006-5</t>
+          <t xml:space="preserve"> 3.3608.0007.001-0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5281,7 +5266,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> POTE DE PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5291,12 +5276,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 387 Registro de Produto de Risco 2 - Detergentes e Congêneres</t>
         </is>
       </c>
     </row>
@@ -5309,32 +5294,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMICA GAUCHA LTDA - ME</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06631-3</t>
+          <t xml:space="preserve"> 3.07616-9</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS</t>
+          <t xml:space="preserve"> MAGIC EDX</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016623/2022-69</t>
+          <t xml:space="preserve"> 25351.014259/2022-01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.007-3</t>
+          <t xml:space="preserve"> 3.7616.0008.001-6</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5344,7 +5329,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERSÃO 1 + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5354,7 +5339,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5392,7 +5377,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.008-1</t>
+          <t xml:space="preserve"> 3.6631.0035.001-4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5407,7 +5392,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5455,7 +5440,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.009-1</t>
+          <t xml:space="preserve"> 3.6631.0035.002-2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5470,7 +5455,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5518,7 +5503,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.010-3</t>
+          <t xml:space="preserve"> 3.6631.0035.003-0</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5533,7 +5518,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5581,7 +5566,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.011-1</t>
+          <t xml:space="preserve"> 3.6631.0035.004-9</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5596,7 +5581,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA PALMAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5644,7 +5629,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.012-1</t>
+          <t xml:space="preserve"> 3.6631.0035.005-7</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5659,7 +5644,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5707,7 +5692,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.013-8</t>
+          <t xml:space="preserve"> 3.6631.0035.006-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5722,7 +5707,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5770,7 +5755,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.014-6</t>
+          <t xml:space="preserve"> 3.6631.0035.007-3</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5785,7 +5770,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5833,7 +5818,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.015-4</t>
+          <t xml:space="preserve"> 3.6631.0035.008-1</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5848,7 +5833,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5896,7 +5881,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.016-2</t>
+          <t xml:space="preserve"> 3.6631.0035.009-1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5911,7 +5896,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5959,7 +5944,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.017-0</t>
+          <t xml:space="preserve"> 3.6631.0035.010-3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5974,7 +5959,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6022,7 +6007,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.018-9</t>
+          <t xml:space="preserve"> 3.6631.0035.011-1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6037,7 +6022,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6085,7 +6070,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.019-7</t>
+          <t xml:space="preserve"> 3.6631.0035.012-1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6100,7 +6085,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6148,7 +6133,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.020-0</t>
+          <t xml:space="preserve"> 3.6631.0035.013-8</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6163,7 +6148,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6211,7 +6196,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.021-9</t>
+          <t xml:space="preserve"> 3.6631.0035.014-6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6226,7 +6211,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6274,7 +6259,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.022-7</t>
+          <t xml:space="preserve"> 3.6631.0035.015-4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6289,7 +6274,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6337,7 +6322,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.023-5</t>
+          <t xml:space="preserve"> 3.6631.0035.016-2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6352,7 +6337,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6400,7 +6385,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.024-3</t>
+          <t xml:space="preserve"> 3.6631.0035.017-0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6415,7 +6400,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6463,7 +6448,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.025-1</t>
+          <t xml:space="preserve"> 3.6631.0035.018-9</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6478,7 +6463,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6526,7 +6511,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.026-1</t>
+          <t xml:space="preserve"> 3.6631.0035.019-7</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6541,7 +6526,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6589,7 +6574,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.027-8</t>
+          <t xml:space="preserve"> 3.6631.0035.020-0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6604,7 +6589,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA SILVESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6652,7 +6637,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.028-6</t>
+          <t xml:space="preserve"> 3.6631.0035.021-9</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6667,7 +6652,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6715,7 +6700,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.029-4</t>
+          <t xml:space="preserve"> 3.6631.0035.022-7</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6730,7 +6715,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6778,7 +6763,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.030-8</t>
+          <t xml:space="preserve"> 3.6631.0035.023-5</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6793,7 +6778,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6841,7 +6826,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.031-6</t>
+          <t xml:space="preserve"> 3.6631.0035.024-3</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6856,7 +6841,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6904,7 +6889,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.032-4</t>
+          <t xml:space="preserve"> 3.6631.0035.025-1</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6919,7 +6904,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6967,7 +6952,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.033-2</t>
+          <t xml:space="preserve"> 3.6631.0035.026-1</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6982,7 +6967,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7030,7 +7015,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.034-0</t>
+          <t xml:space="preserve"> 3.6631.0035.027-8</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7045,7 +7030,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7093,7 +7078,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.035-9</t>
+          <t xml:space="preserve"> 3.6631.0035.028-6</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7108,7 +7093,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDA MUSK + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7156,7 +7141,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.036-7</t>
+          <t xml:space="preserve"> 3.6631.0035.029-4</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7171,7 +7156,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7219,7 +7204,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.037-5</t>
+          <t xml:space="preserve"> 3.6631.0035.030-8</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7234,7 +7219,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7282,7 +7267,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.038-3</t>
+          <t xml:space="preserve"> 3.6631.0035.031-6</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7297,7 +7282,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7345,7 +7330,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.039-1</t>
+          <t xml:space="preserve"> 3.6631.0035.032-4</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7360,7 +7345,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PACIFIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7408,7 +7393,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.040-5</t>
+          <t xml:space="preserve"> 3.6631.0035.033-2</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7423,7 +7408,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7471,7 +7456,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.041-3</t>
+          <t xml:space="preserve"> 3.6631.0035.034-0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7486,7 +7471,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7534,7 +7519,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.042-1</t>
+          <t xml:space="preserve"> 3.6631.0035.035-9</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7549,7 +7534,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7597,7 +7582,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.043-1</t>
+          <t xml:space="preserve"> 3.6631.0035.036-7</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7612,7 +7597,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PALMOLIVER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7660,7 +7645,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.044-8</t>
+          <t xml:space="preserve"> 3.6631.0035.037-5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7675,7 +7660,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7723,7 +7708,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.045-6</t>
+          <t xml:space="preserve"> 3.6631.0035.038-3</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7738,7 +7723,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7786,7 +7771,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.046-4</t>
+          <t xml:space="preserve"> 3.6631.0035.039-1</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7801,7 +7786,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7849,7 +7834,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.047-2</t>
+          <t xml:space="preserve"> 3.6631.0035.040-5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7864,7 +7849,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7912,7 +7897,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.048-0</t>
+          <t xml:space="preserve"> 3.6631.0035.041-3</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7927,7 +7912,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7975,7 +7960,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.049-9</t>
+          <t xml:space="preserve"> 3.6631.0035.042-1</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7990,7 +7975,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8038,7 +8023,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.050-2</t>
+          <t xml:space="preserve"> 3.6631.0035.043-1</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8053,7 +8038,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8101,7 +8086,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.051-0</t>
+          <t xml:space="preserve"> 3.6631.0035.044-8</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8116,7 +8101,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS SPLEND + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8164,7 +8149,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.052-9</t>
+          <t xml:space="preserve"> 3.6631.0035.045-6</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8179,7 +8164,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8227,7 +8212,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.053-7</t>
+          <t xml:space="preserve"> 3.6631.0035.046-4</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8242,7 +8227,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8290,7 +8275,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.054-5</t>
+          <t xml:space="preserve"> 3.6631.0035.047-2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8305,7 +8290,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8353,7 +8338,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.055-3</t>
+          <t xml:space="preserve"> 3.6631.0035.048-0</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8368,7 +8353,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS CAMPESTRE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8416,7 +8401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.056-1</t>
+          <t xml:space="preserve"> 3.6631.0035.049-9</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8431,7 +8416,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8479,7 +8464,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.057-1</t>
+          <t xml:space="preserve"> 3.6631.0035.050-2</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8494,7 +8479,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8542,7 +8527,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.058-8</t>
+          <t xml:space="preserve"> 3.6631.0035.051-0</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8557,7 +8542,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8605,7 +8590,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.059-6</t>
+          <t xml:space="preserve"> 3.6631.0035.052-9</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8620,7 +8605,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS ERVA-DOCE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8668,7 +8653,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.060-1</t>
+          <t xml:space="preserve"> 3.6631.0035.053-7</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8683,7 +8668,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8731,7 +8716,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.061-8</t>
+          <t xml:space="preserve"> 3.6631.0035.054-5</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8746,7 +8731,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8794,7 +8779,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.062-6</t>
+          <t xml:space="preserve"> 3.6631.0035.055-3</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8809,7 +8794,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8857,7 +8842,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.063-4</t>
+          <t xml:space="preserve"> 3.6631.0035.056-1</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8872,7 +8857,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NEUTER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8920,7 +8905,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.064-2</t>
+          <t xml:space="preserve"> 3.6631.0035.057-1</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8935,7 +8920,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8983,7 +8968,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.065-0</t>
+          <t xml:space="preserve"> 3.6631.0035.058-8</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8998,7 +8983,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9046,7 +9031,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.066-9</t>
+          <t xml:space="preserve"> 3.6631.0035.059-6</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9061,7 +9046,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9109,7 +9094,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.067-7</t>
+          <t xml:space="preserve"> 3.6631.0035.060-1</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9124,7 +9109,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9172,7 +9157,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.068-5</t>
+          <t xml:space="preserve"> 3.6631.0035.061-8</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9187,7 +9172,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9235,7 +9220,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.069-3</t>
+          <t xml:space="preserve"> 3.6631.0035.062-6</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9250,7 +9235,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9298,7 +9283,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.070-7</t>
+          <t xml:space="preserve"> 3.6631.0035.063-4</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9313,7 +9298,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9361,7 +9346,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.071-5</t>
+          <t xml:space="preserve"> 3.6631.0035.064-2</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -9376,7 +9361,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS AMAZON + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9424,7 +9409,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.072-3</t>
+          <t xml:space="preserve"> 3.6631.0035.065-0</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9439,7 +9424,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9487,7 +9472,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.073-1</t>
+          <t xml:space="preserve"> 3.6631.0035.066-9</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9502,7 +9487,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9550,7 +9535,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.074-1</t>
+          <t xml:space="preserve"> 3.6631.0035.067-7</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -9565,7 +9550,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9613,7 +9598,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.075-8</t>
+          <t xml:space="preserve"> 3.6631.0035.068-5</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9628,7 +9613,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS LAVANDER + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9676,7 +9661,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.076-6</t>
+          <t xml:space="preserve"> 3.6631.0035.069-3</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9691,7 +9676,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9739,7 +9724,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.077-4</t>
+          <t xml:space="preserve"> 3.6631.0035.070-7</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9754,7 +9739,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9802,7 +9787,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.078-2</t>
+          <t xml:space="preserve"> 3.6631.0035.071-5</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9817,7 +9802,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9865,7 +9850,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.079-0</t>
+          <t xml:space="preserve"> 3.6631.0035.072-3</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9880,7 +9865,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS NATURE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9908,17 +9893,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -9928,7 +9913,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6631.0035.080-4</t>
+          <t xml:space="preserve"> 3.6631.0035.073-1</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -9943,7 +9928,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9971,47 +9956,47 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207379/2020-80</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0036.001-6</t>
+          <t xml:space="preserve"> 3.6631.0035.074-1</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -10021,7 +10006,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10034,47 +10019,47 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01940-9</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207379/2020-80</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0036.002-4</t>
+          <t xml:space="preserve"> 3.6631.0035.075-8</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10084,7 +10069,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10097,47 +10082,47 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.207398/2020-14</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1940.0035.002-9</t>
+          <t xml:space="preserve"> 3.6631.0035.076-6</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS FRUTIS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -10147,7 +10132,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -10160,32 +10145,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.001-5</t>
+          <t xml:space="preserve"> 3.6631.0035.077-4</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -10195,7 +10180,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALFAZEMA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10223,32 +10208,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.002-3</t>
+          <t xml:space="preserve"> 3.6631.0035.078-2</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -10258,7 +10243,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CAMPESTRE + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10286,32 +10271,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.003-1</t>
+          <t xml:space="preserve"> 3.6631.0035.079-0</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10321,7 +10306,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESOLUX + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10349,32 +10334,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDUSTRIA QUIMILAB DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.06631-3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> VERONA PLUS</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.016623/2022-69</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.004-1</t>
+          <t xml:space="preserve"> 3.6631.0035.080-4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -10384,7 +10369,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> VERONA PLUS OCEANIC + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10412,27 +10397,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.207379/2020-80</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.005-8</t>
+          <t xml:space="preserve"> 3.1940.0036.001-6</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10442,17 +10427,17 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -10462,7 +10447,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -10475,27 +10460,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.207379/2020-80</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.006-6</t>
+          <t xml:space="preserve"> 3.1940.0036.002-4</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -10505,17 +10490,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10525,7 +10510,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -10538,27 +10523,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03231-2</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
+          <t xml:space="preserve"> CLORO GEL SUPER CANDIDA</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.207379/2020-80</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.007-4</t>
+          <t xml:space="preserve"> 3.1940.0036.002-4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10568,17 +10553,17 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -10588,7 +10573,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -10601,27 +10586,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
+          <t xml:space="preserve"> CLORO GEL QBOA</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023454/2022-13</t>
+          <t xml:space="preserve"> 25351.207398/2020-14</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3231.0011.008-2</t>
+          <t xml:space="preserve"> 3.1940.0035.001-0</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10631,17 +10616,17 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -10651,7 +10636,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -10664,57 +10649,57 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
+          <t xml:space="preserve"> CLORO GEL QBOA</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016590/2022-57</t>
+          <t xml:space="preserve"> 25351.207398/2020-14</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0029.001-9</t>
+          <t xml:space="preserve"> 3.1940.0035.002-9</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -10727,57 +10712,57 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> INDÚSTRIAS ANHEMBI LTDA.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.01940-9</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> CLORO GEL QBOA</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016590/2022-57</t>
+          <t xml:space="preserve"> 25351.207398/2020-14</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0029.002-7</t>
+          <t xml:space="preserve"> 3.1940.0035.002-9</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2030</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 1 Ano(s)</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -10790,27 +10775,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.001-7</t>
+          <t xml:space="preserve"> 3.3231.0011.001-5</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10825,7 +10810,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ALFAZEMA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10835,7 +10820,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -10853,27 +10838,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07934-7</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RATICIDA RATHÃO</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.002-5</t>
+          <t xml:space="preserve"> 3.3231.0011.002-3</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -10888,7 +10873,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> CAMPESTRE + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10898,7 +10883,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -10916,27 +10901,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LG CLEAN FABRICACAO DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10290-4</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA LG CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.016618/2022-56</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7934.0011.003-3</t>
+          <t xml:space="preserve"> 3.3231.0011.003-1</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -10951,7 +10936,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESOLUX + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10961,7 +10946,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -10979,27 +10964,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03901-7</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.891762/2021-93</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0290.0001.001-9</t>
+          <t xml:space="preserve"> 3.3231.0011.004-1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11014,17 +10999,17 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO GOTEJADOR + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -11042,27 +11027,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03901-7</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3901.0006.001-4</t>
+          <t xml:space="preserve"> 3.3231.0011.005-8</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11077,7 +11062,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Única + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TALCO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11105,27 +11090,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03901-7</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3901.0006.002-2</t>
+          <t xml:space="preserve"> 3.3231.0011.006-6</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11140,7 +11125,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Única + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11168,27 +11153,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LS PRODUTOS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10126-9</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁCIDO MURIÁTICO DULAR</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020506/2022-08</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3901.0006.003-0</t>
+          <t xml:space="preserve"> 3.3231.0011.007-4</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -11203,7 +11188,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Única + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11231,27 +11216,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUSTANG PLURON QUÍMICA LTDA</t>
+          <t xml:space="preserve"> INSDUSTRIA E COMERCIO LUCIA LTDA-ME</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00546-2</t>
+          <t xml:space="preserve"> 3.03231-2</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAMPROX-H 5%</t>
+          <t xml:space="preserve"> DESINFETANTE VERÔNICA</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.089675/2021-73</t>
+          <t xml:space="preserve"> 25351.023454/2022-13</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0126.0008.001-3</t>
+          <t xml:space="preserve"> 3.3231.0011.008-2</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -11266,7 +11251,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NÃO APRESENTA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11276,7 +11261,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222033 LIMPA PISOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -11294,53 +11279,57 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
+          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.188042/2019-22</t>
+          <t xml:space="preserve"> 25351.016590/2022-57</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0546.3162.001-5</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t xml:space="preserve"> 3.5271.0029.001-9</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3204014 ESTERILIZANTE</t>
+          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 312 REG. SANEANTES - Mudança de Categoria de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -11353,32 +11342,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
+          <t xml:space="preserve"> LIMPADOR CONCENTRADO FLOT KLEAN 10</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
+          <t xml:space="preserve"> 25351.016590/2022-57</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0002.001-2</t>
+          <t xml:space="preserve"> 3.5271.0029.002-7</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -11388,7 +11377,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUAS MARINHAS + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11398,7 +11387,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222021 LIMPADOR DE USO GERAL</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -11416,32 +11405,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0002.002-0</t>
+          <t xml:space="preserve"> 3.7934.0011.001-7</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -11451,7 +11440,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11461,7 +11450,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11479,32 +11468,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0002.003-9</t>
+          <t xml:space="preserve"> 3.7934.0011.002-5</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -11514,7 +11503,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11524,7 +11513,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -11542,32 +11531,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+          <t xml:space="preserve"> KOMBATE SAUDE AMBIENTAL LTDA - EPP</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00013-0</t>
+          <t xml:space="preserve"> 3.07934-7</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+          <t xml:space="preserve"> RATICIDA RATHÃO</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020514/2022-46</t>
+          <t xml:space="preserve"> 25351.016618/2022-56</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0002.004-7</t>
+          <t xml:space="preserve"> 3.7934.0011.003-3</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -11577,7 +11566,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11587,7 +11576,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -11605,27 +11594,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+          <t xml:space="preserve"> LG CLEAN FABRICACAO DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00013-0</t>
+          <t xml:space="preserve"> 3.10290-4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA LG CLEAN</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
+          <t xml:space="preserve"> 25351.891762/2021-93</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0013.0010.001-3</t>
+          <t xml:space="preserve"> 3.0290.0001.001-9</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -11640,17 +11629,17 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO GOTEJADOR + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -11668,27 +11657,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00013-0</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0013.0010.002-1</t>
+          <t xml:space="preserve"> 3.3901.0006.001-4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -11703,7 +11692,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Única + BOMBONA PLÁSTICA TRANSLÚCIDA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11731,27 +11720,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00013-0</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0013.0010.003-1</t>
+          <t xml:space="preserve"> 3.3901.0006.002-2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -11766,7 +11755,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Única + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11794,27 +11783,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROLIMPO-INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA - EPP</t>
+          <t xml:space="preserve"> LIMPEMAX INDÚSTRIA E COMÉRCIO DE PRODUTOS DE LIMPEZA LTDA. EPP</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01429-5</t>
+          <t xml:space="preserve"> 3.03901-7</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAGNUM CHM</t>
+          <t xml:space="preserve"> Desinfetante de Uso Geral Limpemax</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.898050/2021-03</t>
+          <t xml:space="preserve"> 25351.020506/2022-08</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0013.0010.004-8</t>
+          <t xml:space="preserve"> 3.3901.0006.003-0</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -11829,7 +11818,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Única + FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11857,42 +11846,42 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> LS PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03075-4</t>
+          <t xml:space="preserve"> 3.10126-9</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOMITEC DC 550</t>
+          <t xml:space="preserve"> ÁCIDO MURIÁTICO DULAR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.465446/2011-17</t>
+          <t xml:space="preserve"> 25351.089675/2021-73</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1429.0004.001-5</t>
+          <t xml:space="preserve"> 3.0126.0008.001-3</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> NÃO APRESENTA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11902,12 +11891,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222033 LIMPA PISOS</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -11920,57 +11909,53 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> MUSTANG PLURON QUÍMICA LTDA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03075-4</t>
+          <t xml:space="preserve"> 3.00546-2</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOMITEC DC 550</t>
+          <t xml:space="preserve"> SAMPROX-H 5%</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.790437/2021-12</t>
+          <t xml:space="preserve"> 25351.188042/2019-22</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3075.0010.001-5</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0546.3162.001-5</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 9 Meses</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3204014 ESTERILIZANTE</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 312 REG. SANEANTES - Mudança de Categoria de Produto</t>
         </is>
       </c>
     </row>
@@ -11983,32 +11968,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RIZELAR INDUSTRIA E COMERCIO DE ARTIGOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01874-9</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL RIZELAR</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.790437/2021-12</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3075.0010.002-3</t>
+          <t xml:space="preserve"> 3.8335.0002.001-2</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -12018,7 +12003,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÁGUAS MARINHAS + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12028,7 +12013,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -12046,32 +12031,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.014305/2022-63</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1874.0033.001-4</t>
+          <t xml:space="preserve"> 3.8335.0002.002-0</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -12081,7 +12066,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÁGUAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12091,7 +12076,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12109,32 +12094,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0074.001-1</t>
+          <t xml:space="preserve"> 3.8335.0002.003-9</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12144,7 +12129,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12172,32 +12157,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
+          <t xml:space="preserve"> DESINFE-Q</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
+          <t xml:space="preserve"> 25351.020514/2022-46</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0074.002-1</t>
+          <t xml:space="preserve"> 3.8335.0002.004-7</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12207,7 +12192,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12235,32 +12220,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON BG 10</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0074.003-8</t>
+          <t xml:space="preserve"> 3.0013.0010.001-3</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -12270,7 +12255,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12298,32 +12283,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Z S FABRICANTE DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09287-5</t>
+          <t xml:space="preserve"> 3.00013-0</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OMINIRID DESINFETANTE</t>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.019003/2021-09</t>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0074.004-6</t>
+          <t xml:space="preserve"> 3.0013.0010.002-1</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -12333,7 +12318,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FLORAL + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12361,55 +12346,685 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00013-0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0013.0010.003-1</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTOS QUIMICOS SALTE LTDA.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00013-0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE DEBRILHO</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.898050/2021-03</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0013.0010.004-8</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROLIMPO-INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA - EPP</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01429-5</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAGNUM CHM</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.465446/2011-17</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1429.0004.001-5</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2027</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3782 REG. SANEANTES - Retificação de Publicação de Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03075-4</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOMITEC DC 550</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.790437/2021-12</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3075.0010.001-5</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMITEC QUÍMICA INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03075-4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOMITEC DC 550</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.790437/2021-12</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3075.0010.002-3</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RIZELAR INDUSTRIA E COMERCIO DE ARTIGOS DE LIMPEZA LTDA EPP</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01874-9</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL RIZELAR</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.014305/2022-63</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1874.0033.001-4</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON BG 10</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0074.001-1</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON BG 10</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0074.002-1</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON BG 10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0074.003-8</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON BG 10</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019003/2021-09</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0074.004-6</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE nº 255, de 27 de janeiro de 2022
+</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Z S FABRICANTE DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.09287-5</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t xml:space="preserve"> OMINIRID DESINFETANTE</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25351.100465/2021-43</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.9287.0003.001-1</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
+      <c r="H202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
         <is>
           <t xml:space="preserve"> ÚNICA + FRASCO DE PLÁSTICO TRANSLÚCIDO COM GATILHO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
